--- a/paper/Tables/glutamate and rett syndrome cdkl5.xlsx
+++ b/paper/Tables/glutamate and rett syndrome cdkl5.xlsx
@@ -167,12 +167,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -506,6 +509,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
@@ -876,16 +880,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93168E3B-6BE7-4459-9C10-CE4A0A601E6B}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b297ba6-3c75-43f4-b046-b7dedaa9211e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4b297ba6-3c75-43f4-b046-b7dedaa9211e"/>
     <ds:schemaRef ds:uri="d3de4b96-056f-41d8-923d-53addee4e8b2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/paper/Tables/glutamate and rett syndrome cdkl5.xlsx
+++ b/paper/Tables/glutamate and rett syndrome cdkl5.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Rett Syndrome Microglia Damage Dendrites and Synapses by the Elevated Release of Glutamate</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Loss of CDKL5 in Glutamatergic Neurons Disrupts Hippocampal Microcircuitry and Leads to Memory Impairment in Mice</t>
   </si>
   <si>
-    <t>Cdkl5 mutant zebrafsh shows skeletal and neuronal alterations mimicking human CDKL5 defciency disorder</t>
-  </si>
-  <si>
     <t>Lack of Cdkl5 Disrupts the Organization of Excitatory and Inhibitory Synapses and Parvalbumin Interneurons in the Primary Visual Cortex</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>Early alterations in a mouse model of Rett syndrome: the GABA developmental shift is abolished at birth</t>
   </si>
   <si>
-    <t>Brain-Derived Neurotrophic Factor Expression and Respiratory Function Improve after Ampakine Treatment in a Mouse Model of Rett Syndrome</t>
-  </si>
-  <si>
     <t>Summary</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>https://www.jneurosci.org/content/27/40/10912</t>
-  </si>
-  <si>
     <t>https://www.nature.com/articles/s41598-019-45635-9</t>
   </si>
   <si>
@@ -95,9 +86,6 @@
     <t>https://pubmed.ncbi.nlm.nih.gov/27965538/</t>
   </si>
   <si>
-    <t>https://www.nature.com/articles/s41598-022-13364-1</t>
-  </si>
-  <si>
     <t>https://www.jneurosci.org/node/624411</t>
   </si>
   <si>
@@ -123,6 +111,35 @@
   </si>
   <si>
     <t>Found decreased levels ionotropic glutamate receptors, no change in mGluRs, and higher GABAR denstity (only in specific areas of the brain.)</t>
+  </si>
+  <si>
+    <t>Excitation and Inhibition Imbalance in Rett Syndrome</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/articles/10.3389/fnins.2022.825063/full</t>
+  </si>
+  <si>
+    <t>Review: mentions high glutamate in Rett patient CSF, low GABA in different parts of the brain.</t>
+  </si>
+  <si>
+    <t>They found spontaneous glutamatergic activity (increased sEPSC at P0) to be increased from birth in MeCP2 heterozygous mice. They also report low GABA (decreased sIPSC at P15) but no rescue of brreathing symptoms with bumetadine (increases GABA inhibition)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MeCP2 appeared to be selectively induced in glutamatergic dLGN (but not retinal) neurons during the sensitive period of visual sensory pathways. </t>
+  </si>
+  <si>
+    <t>Patch-clamp showed that cortical organoids (iPSC-derived) from CDKL5 deficiency patients had higher excitability, but they didn't find any significant changes in sEPSCs. They conclude that excitatory synaptic transmission isn't responsible for neuronal hyperexcitability in patients. CDKL5 patietns and RTT patients had similar electrophysiological properties (hyperexcitability).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper starts with a nice summary of how CDKL5 works, with comments on different mouse models. They selectively ablated CDKL5 from GABAergic neurons in mice. This resulted in increased excitatory synaptic transmission, circuit-level hyperexcitability, and increased levels of NMDARs (GluN1 and GluN2B).  A mouse model with an R58X mutation also found elevated levels of NMDAR, especially GluN2B. The model had some autistic-like features ameliorated by memantine. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They found defects in E/I balance that were region-dependent in CDKL5 KO mice (medial prefrontal cortex: decreased synaptic connectivity, V1 region: enhanced inhibitory connectivity) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">enhanced spontaneous excitatory synaptic activity in Nex-cKO mice s unlikely to be attributed to a specific change in ionotropic
+glutamate receptor subtype.
+</t>
   </si>
 </sst>
 </file>
@@ -167,16 +184,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -459,28 +479,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="76" style="1" customWidth="1"/>
     <col min="2" max="2" width="64" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -488,10 +508,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -499,132 +519,153 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11" location="!/content/playContent/1-s2.0-S0969996122002741?returnurl=https:%2F%2Flinkinghub.elsevier.com%2Fretrieve%2Fpii%2FS0969996122002741%3Fshowall%3Dtrue&amp;referrer="/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C11" r:id="rId9" location="!/content/playContent/1-s2.0-S0969996122002741?returnurl=https:%2F%2Flinkinghub.elsevier.com%2Fretrieve%2Fpii%2FS0969996122002741%3Fshowall%3Dtrue&amp;referrer="/>
+    <hyperlink ref="C12" r:id="rId10"/>
+    <hyperlink ref="C13" r:id="rId11"/>
+    <hyperlink ref="C14" r:id="rId12"/>
+    <hyperlink ref="C2" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FACE5D818E5F50479853446EE507747E" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e722f55148bbad8870355d780504b59a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d3de4b96-056f-41d8-923d-53addee4e8b2" xmlns:ns4="4b297ba6-3c75-43f4-b046-b7dedaa9211e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e547858e4e7ab4dfb3f8dcd768a35191" ns3:_="" ns4:_="">
     <xsd:import namespace="d3de4b96-056f-41d8-923d-53addee4e8b2"/>
@@ -833,15 +874,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -851,6 +883,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C55B12C-4165-487E-ACCE-6E809E21F234}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7CE5993-A74D-4C9E-974B-E12CA7F82316}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -869,27 +909,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C55B12C-4165-487E-ACCE-6E809E21F234}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93168E3B-6BE7-4459-9C10-CE4A0A601E6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b297ba6-3c75-43f4-b046-b7dedaa9211e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d3de4b96-056f-41d8-923d-53addee4e8b2"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d3de4b96-056f-41d8-923d-53addee4e8b2"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4b297ba6-3c75-43f4-b046-b7dedaa9211e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>